--- a/DOWNLOADS/EDITAIS/U_927928_E_900042025_30-09-2025_10h00m/U_927928_E_900042025_30-09-2025_10h00m_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_927928_E_900042025_30-09-2025_10h00m/U_927928_E_900042025_30-09-2025_10h00m_master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
   <si>
     <t>Nº</t>
   </si>
@@ -103,94 +103,34 @@
     <t>Switch Switch Quantidade Portas: 8UN, Tipo Portas: 10/100 Base Tx E Base T, Portas 1000 Base Sx Rj-45, Velocidade Porta: 10/100 E 1000 Mbps, Alimentação: 100/240VCA, Frequência: 50/60HZ, Aplicação: Transmissão De Dados</t>
   </si>
   <si>
-    <t>Microcomputador Memória Ram: Superior A 8GB, Núcleos Por Processador: Superior A 8, Armazenamento Hdd: Sem Disco HddTB., Armazenamento Ssd: Até 2 Tb, Monitor: Sem MonitorPOL, Componentes Adicionais: Com Teclado E Mouse, Sistema Operacional: Proprietário, Garantia On Site: Superior A 36MESES, Gabinete: Torre, Outros Recursos: Conforme Edital</t>
-  </si>
-  <si>
-    <t>Monitor Computador Tamanho Tela: 23 A 30POL, Tipo De Tela: Led, Formato Tela: Widescreen, Qualidade De Imagem: Full Hd, Interatividade Da Tela: Sem Interatividade, Ajuste: Com Inclinação Do Display, Alimentação: Bivolt, Garantia On Site: 12MESES</t>
-  </si>
-  <si>
-    <t>Roteador Tipo Uso: Grande Porte, Tipo Linha: Alta Velocidade, Protocolo Lan: Tcp/Ip, Protocolo Wan: Tcp/Ip, Velocidade: 20GB/S, Tensão Alimentação: 110/220V, Memória Ram: 8GB, Memória Cache: 2GB, Tipo Arquitetura: Single Board</t>
-  </si>
-  <si>
-    <t>Scanner Tipo: Mesa, Cromatismo: Policromático, Tipo Digitalização: Simplex/Duplex, Interface: Usb, Tipo Alimentador Papel: Automático De Documentos (Adf) Para 50 Folhas, Formato: A4, Carta, Ofício, Características Adicionais: Captura Mínima 600x600 Ppp/Usb Com Cabo Incluído, Software: Ocr, Frequência: 60HZ, Voltagem: Bivolt</t>
-  </si>
-  <si>
-    <t>Notebook Tela: Superior A 14POL, Interatividade Da Tela: Sensível Ao Toque, Memória Ram: Superior A 8GB, Núcleos Por Processador: Superior A 8, Armazenamento Hdd: Sem Disco HddGB, Armazenamento Ssd: 310 A 500, Bateria: Minimo De 6 Celulas, Alimentação: Bivolt Automática, Sistema Operacional: Proprietário, Garantia On Site: Superior A 36MESES</t>
-  </si>
-  <si>
-    <t>Estabilizador Tensão Tensão Alimentação Entrada: BivoltV, Características Adicionais: Proteção Contra Sobretensão E Sobrecarga/Filtro De, Tipo: Nobreak Senoidal, Quantidade Tomadas Saída: 4, Tensão Saída: 115V, Capacidade Nominal: 1.200 KVA, Bateria: Selada</t>
-  </si>
-  <si>
-    <t>Equipamento Segurança Rede Tipo: Amppliance, Aplicação: Firewall</t>
-  </si>
-  <si>
-    <t>Equipamento Wireless Padrão: 802.11 A/B/G/N/Ac, Tensão Alimentação: 110/220V, Aplicação: Conexão Sem Fio De Equipamentos Em Rede, Características Adicionais: Rack 19 Firewall Integrado, Velocidade: 100/1000, Quantidade Portas: 8, Tipo: Controladora De Access Point</t>
-  </si>
-  <si>
-    <t>Microcomputador Memória Ram: 64GB, Núcleos Por Processador: Superior A 8, Armazenamento Hdd: Sem Disco HddTB., Armazenamento Ssd: Até 2 Tb, Monitor: Sem MonitorPOL, Componentes Adicionais: Com Teclado E Mouse, Sistema Operacional: Proprietário, Garantia On Site: Superior A 36MESES, Gabinete: Torre, Outros Recursos: Conforme Edital</t>
-  </si>
-  <si>
-    <t>Switch Quantidade Portas: 8UN, Tipo Portas: 10/100 Base Tx E Base T, Portas 1000 Base Sx Rj-45, Velocidade Porta: 10/100 E 1000 Mbps, Alimentação: 100/240VCA, Frequência: 50/60HZ, Aplicação: Transmissão De Dados</t>
-  </si>
-  <si>
-    <t>6451,86</t>
-  </si>
-  <si>
-    <t>698,48</t>
-  </si>
-  <si>
-    <t>1656,02</t>
-  </si>
-  <si>
-    <t>7607,76</t>
-  </si>
-  <si>
-    <t>6198,08</t>
-  </si>
-  <si>
-    <t>734,46</t>
-  </si>
-  <si>
-    <t>3974,75</t>
-  </si>
-  <si>
-    <t>4993,53</t>
-  </si>
-  <si>
-    <t>13496,80</t>
-  </si>
-  <si>
-    <t>224,93</t>
-  </si>
-  <si>
-    <t>516148,80</t>
-  </si>
-  <si>
-    <t>83817,60</t>
-  </si>
-  <si>
-    <t>16560,20</t>
-  </si>
-  <si>
-    <t>76077,60</t>
-  </si>
-  <si>
-    <t>185942,40</t>
-  </si>
-  <si>
-    <t>29378,40</t>
-  </si>
-  <si>
-    <t>11924,25</t>
-  </si>
-  <si>
-    <t>9987,06</t>
-  </si>
-  <si>
-    <t>40490,40</t>
-  </si>
-  <si>
-    <t>1124,65</t>
+    <t>COMPUTADOR:  Processador: 6 Núcleos, 18MB, 2.0GHz até 4.4GHz, 35W  SO: Windows 11  Memoria ram: 8GB DDR5.  SSD: 256GB NVMe M.2.   Teclado/Mouse com fio.</t>
+  </si>
+  <si>
+    <t>MONITOR:   Tamanho Tela: 23.8”  Tipo De Tela: IPS ou LED.  Formato Tela: Widescreen   Qualidade De Imagem: Full HD    Ajuste: Com Inclinação Do Display   Portas: HDMI, DisplayPort e VGA  Alimentação: Bivolt</t>
+  </si>
+  <si>
+    <t>Ponto de Acesso Sem Fio:   Padrão: WiFi 7  Fluxos Espaciais: 8  Área de Cobertura: 160 m².  Contagem máxima de clientes: 500   Uplink: 2,5 GbE   Locais de Montagem: Teto, Parede.  Método de Alimentação: PoE+.</t>
+  </si>
+  <si>
+    <t>SCANNER:  Alimentação vertical, scanner duplex colorido de uma passagem.   Sensor:  Alimentação vertical (face para baixo)   Dispositivo fotoelétrico:  Carro fixo e documento em movimento  Resolução óptica: 600 dpi  Resolução interpolada: 1200 dpi   Profundidade de bit de cor:  RGB: 30 bits de entrada/24 bits de saída  Área máxima de digitalização:  A 200 dpi: máx. 21,6 cm x 609,6 cm (8,5" x 240") min. 5,1 cm x 5,1 cm (2" x 2")  Velocidade de digitalização:  Preto e branco, colorido, tons de cinza, 300 dpi: 35 ppm (simplex)/70 ipm (duplex)  Software incluído:  Epson Scan 2, Epson ScanSmart  Interfaces:  USB 3.0 de alta velocidade  Ciclo de trabalho diário:  Até 4.000 páginas</t>
+  </si>
+  <si>
+    <t>NOTEBOOK:  Processador  12ª Geração Intel® Core™ i3-1215U (6-core, cache de 10MB, até 4.4GHz).  Sistema operacional Windows 11  Tela Full HD de 15.6" (1920 x 1080).  Memória 8GB DDR4 (1x8GB) 2666MT/s;  Expansível até 16GB (2 slots soDIMM)  Armazenamento SSD de 256GB PCIe NVMe M.2  Portas 2 portas USB 3.2 Type-A de 1ª geração 1 porta USB 2.0 1 tomada de alimentação 1 porta para headset (combinação de fones de ouvido e microfone) 1 porta HDMI 1.4 (a resolução máxima compatível com HDMI é de 1920 x 1080 a 60 Hz. Sem saída 4K/2K)  Slots 1 slot M.2 2230 para placa de WiFi e Bluetooth 1 slot M.2 2230/2280 para unidade de estado sólido 1 slot de cartão SD  Câmera Câmera HD de 720p a 30 FPS com microfone único integrado  Wireless 802.11ac 1x1 Wi-Fi, placa de rede wireless com Bluetooth.</t>
+  </si>
+  <si>
+    <t>NOBREAK:   Potência nominal de pico 1500 VA / 750 W  Tensão nominal de entrada 120 V~ / 220 V~   Fusível rearmável 10 A   Fator de potência 0,5  Tensão nominal de saída 120 V~  Tempo de transferência &lt;8 ms   Frequência no modo Bateria 60 Hz ±1 Hz  Forma de onda no modo Bateria Semissenoidal (retangular)  Tomada (NBR 14136) mínimo 5 tomadas de 10 A</t>
+  </si>
+  <si>
+    <t>ROUTEBOARD:  Architecture ARM 64bit  CPU 88F7040  CPU core count 4  Switch chip model 88E6393  OS RouterOS v7  Size of RAM 1 GB  Storage size 1 GB  Storage type NAND  Number of DC inputs 3 (DC jack, PoE-IN, 2-pin terminal)  DC jack input Voltage 24-57 V  2-pin terminal input Voltage 24-57 V  Max power consumption: 150 W  PoE-out: ports Ether1-Ether8  PoE out: 802.3af/at  Max out per port output (input 18-30 V): 900 mA  Max out per port output (input 30-57 V): 440 mA  Max total out (A): 2.59 A  Total output current: 2.28  Total output power 130  10/100/1000 Ethernet: ports: 7  Number of 1G Ethernet ports with Reverse PoE (PoE-in): 7  Number of 2.5G Ethernet ports : 1  Number of 2.5G Ethernet ports with Reverse PoE (PoE-in): 1  SFP+ ports: 1</t>
+  </si>
+  <si>
+    <t>CONTROLADORA DE ACCESS POINT:  Conjunto de Aplicações UniFi  Network Sim  Protect Sim  Access Sim  Talk Sim  Connect Sim  Dispositivos UniFi Gerenciados +100  Câmeras Gerenciadas (24) HD (14) 2K (8) 4K  Usuários Simultâneos Conectados +1.000  Portas WAN padrão (1) SFP+ 10G (1) GbE RJ45  Portas LAN (1) SFP+ 10G (8) RJ45 GbE  Throughput IDS/IPS 3.5 Gbps  Formato Montagem em rack (1U)  Redundância Modo Sombra (VRRP) Failover de Gateway  Backup de Energia DC  Segurança Firewall com Estado Sim  Firewall de Camada 7 com Consciência de Aplicação Sim  Identificação de DPI e Tráfego Sim  Filtragem Avançada de Firewall Baseada em Zonas (Regiões, Domínios, Aplicativos) Sim  Filtragem de Conteúdo Sim  Prevenção de Intrusão (IPS/IDS) Sim  Bloqueio de anúncios Sim  Assinaturas IDS/IPS 55.000+ com CyberSecure  Segmentação de Tráfego Baseada em VLAN/Sub-rede Sim  Hardware Armazenamento NVR Baia de HDD NVR de 3,5" Consumo Máximo de Energia 33W  Método de Alimentação (1) Entrada AC universal, 100—240V AC, 50/60 Hz (1) Entrada DC USP-RPS Fonte de Alimentação AC/DC, interno, 50W Faixa de Tensão Suportada 100—240V CA  Processador Quad-core ARM® Cortex®-A57 a 1.7 GHz  Memória do Sistema 4 GB  Armazenamento Interno 16 GB  Display de LCM Tela sensível ao toque de 1.3 polegadas  Gerenciamento Ethernet Bluetooth  Dream Machine Pro</t>
+  </si>
+  <si>
+    <t>Computador para edição e transmissão: Processador com 20 núcleos e 28 threads; Memória 64GB/ UDIMM DDR5-ECC/4400Mhz; Disco 1: 1TB do tipo SSD M.2 PCIe NVMe. Disco 2: 2TB do tipo SATA III, 7200RMP; Placa de vídeo dedicada 12GB GDDR6; Teclado alfanumérico ABNT II com 107 teclas; Mouse tipo óptico; Windows 11.</t>
+  </si>
+  <si>
+    <t>SWITCH: Quantidade Portas: 8 UN Tipo Portas: Rj45 Velocidade Porta: 10/100/1000mbps Alimentação: 100/220 V Frequência: 60 HZ Características Adicionais: Com Fonte De Alimentação Chaveada Automaticamente;</t>
   </si>
   <si>
     <t>Unidade</t>
@@ -605,20 +545,20 @@
       <c r="D2">
         <v>80</v>
       </c>
-      <c r="E2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" t="s">
-        <v>49</v>
+      <c r="E2">
+        <v>6451.86</v>
+      </c>
+      <c r="F2">
+        <v>516148.8</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="I2" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -634,20 +574,20 @@
       <c r="D3">
         <v>120</v>
       </c>
-      <c r="E3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" t="s">
-        <v>50</v>
+      <c r="E3">
+        <v>698.48</v>
+      </c>
+      <c r="F3">
+        <v>83817.60000000001</v>
       </c>
       <c r="G3" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="H3" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="I3" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -663,20 +603,20 @@
       <c r="D4">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" t="s">
-        <v>51</v>
+      <c r="E4">
+        <v>1656.02</v>
+      </c>
+      <c r="F4">
+        <v>16560.2</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -692,20 +632,20 @@
       <c r="D5">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" t="s">
-        <v>52</v>
+      <c r="E5">
+        <v>7607.76</v>
+      </c>
+      <c r="F5">
+        <v>76077.60000000001</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -721,20 +661,20 @@
       <c r="D6">
         <v>30</v>
       </c>
-      <c r="E6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" t="s">
-        <v>53</v>
+      <c r="E6">
+        <v>6198.08</v>
+      </c>
+      <c r="F6">
+        <v>185942.4</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="H6" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="I6" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -750,20 +690,20 @@
       <c r="D7">
         <v>40</v>
       </c>
-      <c r="E7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" t="s">
-        <v>54</v>
+      <c r="E7">
+        <v>734.46</v>
+      </c>
+      <c r="F7">
+        <v>29378.4</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="I7" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -779,20 +719,20 @@
       <c r="D8">
         <v>3</v>
       </c>
-      <c r="E8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" t="s">
-        <v>55</v>
+      <c r="E8">
+        <v>3974.75</v>
+      </c>
+      <c r="F8">
+        <v>11924.25</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="H8" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="I8" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -808,20 +748,20 @@
       <c r="D9">
         <v>2</v>
       </c>
-      <c r="E9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" t="s">
-        <v>56</v>
+      <c r="E9">
+        <v>4993.53</v>
+      </c>
+      <c r="F9">
+        <v>9987.059999999999</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="H9" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="I9" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -837,20 +777,20 @@
       <c r="D10">
         <v>3</v>
       </c>
-      <c r="E10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" t="s">
-        <v>57</v>
+      <c r="E10">
+        <v>13496.8</v>
+      </c>
+      <c r="F10">
+        <v>40490.39999999999</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="H10" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="I10" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -866,20 +806,20 @@
       <c r="D11">
         <v>5</v>
       </c>
-      <c r="E11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" t="s">
-        <v>58</v>
+      <c r="E11">
+        <v>224.93</v>
+      </c>
+      <c r="F11">
+        <v>1124.65</v>
       </c>
       <c r="G11" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="H11" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="I11" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
